--- a/1_Schematic/Build V2.0/RF-GEN-FW Review Data_20200309.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-FW Review Data_20200309.xlsx
@@ -12,6 +12,7 @@
     <sheet name="FW History" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -408,15 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,6 +421,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -760,7 +761,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
+      <c r="B4" s="31">
         <v>43890</v>
       </c>
       <c r="C4" s="7">
@@ -774,7 +775,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -903,7 +904,7 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
+      <c r="B4" s="31">
         <v>43890</v>
       </c>
       <c r="C4" s="7">
@@ -915,7 +916,7 @@
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -925,7 +926,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -935,7 +936,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -947,7 +948,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -957,7 +958,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="14">
         <v>6</v>
       </c>
@@ -980,7 +981,7 @@
   <dimension ref="C4:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,102 +991,102 @@
   <sheetData>
     <row r="4" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <v>0.5</v>
       </c>
       <c r="D6" s="8">
         <v>10</v>
       </c>
       <c r="E6" s="8">
-        <f>F6-D6</f>
+        <f t="shared" ref="E6:E11" si="0">F6-D6</f>
         <v>10</v>
       </c>
       <c r="F6" s="8">
         <v>20</v>
       </c>
       <c r="G6" s="8">
-        <f>1/F6*1000</f>
+        <f t="shared" ref="G6:G11" si="1">1/F6*1000</f>
         <v>50</v>
       </c>
       <c r="H6" s="8">
-        <f>D6/F6*100</f>
+        <f t="shared" ref="H6:H11" si="2">D6/F6*100</f>
         <v>50</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>0.6</v>
       </c>
       <c r="D7" s="5">
         <v>12</v>
       </c>
       <c r="E7" s="5">
-        <f>F7-D7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>20</v>
       </c>
       <c r="G7" s="5">
-        <f>1/F7*1000</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H7" s="5">
-        <f>D7/F7*100</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>0.7</v>
       </c>
       <c r="D8" s="5">
         <v>14</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E14" si="0">F8-D8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" s="5">
         <v>20</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" ref="G8:G13" si="1">1/F8*1000</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8:H14" si="2">D8/F8*100</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>0.8</v>
       </c>
       <c r="D9" s="5">
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>0.9</v>
       </c>
       <c r="D10" s="5">
@@ -1135,7 +1136,7 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <v>0.999</v>
       </c>
       <c r="D11" s="15">
